--- a/results/finreport/iterative_significance_tests_rephrase_level_2.xlsx
+++ b/results/finreport/iterative_significance_tests_rephrase_level_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.378321970525042e-19</v>
+        <v>1.249593643734131e-29</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.352716764880261e-20</v>
+        <v>7.36218034485329e-20</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3880938593082582</v>
+        <v>0.398283555090101</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.378321970525042e-19</v>
+        <v>1.249593643734131e-29</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.887370683351528e-10</v>
+        <v>7.292532187308305e-10</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2077679446689493</v>
+        <v>0.2063151010325094</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MRR@5</t>
+          <t>nDCG@5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.378321970525042e-19</v>
+        <v>1.249593643734131e-29</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.894760908118875e-18</v>
+        <v>1.352716764880261e-20</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3732269962476187</v>
+        <v>0.3880938593082582</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.378321970525042e-19</v>
+        <v>1.249593643734131e-29</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -681,17 +681,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.453089394352769e-08</v>
+        <v>7.291210146272699e-20</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1946003050045457</v>
+        <v>0.4047011551405026</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>small</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -706,7 +706,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>MRR@5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.975639994495784e-17</v>
+        <v>1.249593643734131e-29</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -733,17 +733,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.28727918841197e-17</v>
+        <v>6.744866471299216e-08</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3655907235185254</v>
+        <v>0.1935322335765321</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>negligible</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -758,7 +758,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>MRR@5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.975639994495784e-17</v>
+        <v>1.249593643734131e-29</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>TEXT-MULTI</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.491501024079407e-08</v>
+        <v>2.894760908118875e-18</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2077706187365797</v>
+        <v>0.3732269962476187</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Recall@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.975639994495784e-17</v>
+        <v>1.5275252320007e-19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.28727918841197e-17</v>
+        <v>2.080217959636266e-13</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3655907235185252</v>
+        <v>0.3116561322885742</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Recall@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.975639994495784e-17</v>
+        <v>1.5275252320007e-19</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.491501024079407e-08</v>
+        <v>3.436618355370711e-08</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2077706187365796</v>
+        <v>0.2052705426045703</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -914,20 +914,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nDCG@5</t>
+          <t>Precision@5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.109464516553148e-05</v>
+        <v>1.5275252320007e-19</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>MULTIMODAL-MULTI</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -941,21 +941,21 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.109464516553148e-05</v>
+        <v>1.28727918841197e-17</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1751837730173363</v>
+        <v>0.3655907235185254</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>small</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -966,25 +966,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MRR@5</t>
+          <t>Recall@5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.401343609282234e-05</v>
+        <v>1.5275252320007e-19</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MULTIMODAL-SINGLE</t>
+          <t>MULTIMODAL-MULTI</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TEXT-MULTI</t>
+          <t>TEXT-SINGLE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -993,21 +993,21 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.401343609282234e-05</v>
+        <v>2.080217959636266e-13</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1734996087625025</v>
+        <v>0.3116561322885741</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>small</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1018,48 +1018,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Precision@5</t>
+          <t>Recall@5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0003616696613854485</v>
+        <v>1.5275252320007e-19</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TEXT-MULTI</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Wilcoxon Signed-Rank Test</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.0003616696613854485</v>
+        <v>3.436618355370711e-08</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1554420663836717</v>
+        <v>0.2052705426045703</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>negligible</t>
+          <t>small</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1075,45 +1075,605 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wilcoxon Signed-Rank Test</t>
+          <t>Friedman Test</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0003616696613854485</v>
+        <v>1.5275252320007e-19</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>MULTIMODAL-MULTI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.28727918841197e-17</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3655907235185252</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.1969729567228e-07</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>MULTIMODAL-SINGLE</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>9.067743926322814e-05</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1823429119109533</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.1969729567228e-07</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>TEXT-MULTI</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Wilcoxon Signed-Rank Test</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0003616696613854485</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.1554420663836717</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.139894651776448e-05</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1767447495528556</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>negligible</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K15" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.1969729567228e-07</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.87996927700734e-06</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2015960168554133</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.1969729567228e-07</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.913134653886283e-05</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1746496779080373</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0003919024474635891</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01380980996118927</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1050734580789261</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0003919024474635891</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0002856847497321478</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1579361551110476</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0003919024474635891</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01380980996118927</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1050734580789261</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Friedman Test</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0003919024474635891</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MULTIMODAL-SINGLE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0002856847497321478</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1579361551110475</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>negligible</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nDCG@5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9993595559922204</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MRR@5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3457605273254487</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TEXT-MULTI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Precision@5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1289780429919642</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>rephrase_level_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Recall@5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Wilcoxon Signed-Rank Test</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1289780429919642</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TEXT-SINGLE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>rephrase_level_2</t>
         </is>
